--- a/biology/Botanique/Centaurea_melitensis/Centaurea_melitensis.xlsx
+++ b/biology/Botanique/Centaurea_melitensis/Centaurea_melitensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea melitensis, la Centaurée de Malte ou Croix de Malte, est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Centaurea. C'est une plante annuelle épineuse méditerranéenne, à fleurs jaunes.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle pubescente, rude, de 20 cm à 1 m de hauteur, dressée, rameuse. Ses feuilles radicales sont lyrées-pennatifides, les caulinaires sessiles, mucronées, entières, décurrentes[2].
-Les fleurs sont jaunes, toutes égales, glanduleuses. Les capitules sont solitaires ou agrégés, entourés de feuilles florales. L'involucre est ovoïde-globuleux, assez petit, à folioles terminées par une épine égalant leur longueur ou ne les dépassant pas, pennée-spinuleuse de la base au milieu de l'épine. Les fruits sont de petits akènes, à ombilic non barbu, plus longs que l'aigrette. La floraison se déroule en 	juin et juillet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle pubescente, rude, de 20 cm à 1 m de hauteur, dressée, rameuse. Ses feuilles radicales sont lyrées-pennatifides, les caulinaires sessiles, mucronées, entières, décurrentes.
+Les fleurs sont jaunes, toutes égales, glanduleuses. Les capitules sont solitaires ou agrégés, entourés de feuilles florales. L'involucre est ovoïde-globuleux, assez petit, à folioles terminées par une épine égalant leur longueur ou ne les dépassant pas, pennée-spinuleuse de la base au milieu de l'épine. Les fruits sont de petits akènes, à ombilic non barbu, plus longs que l'aigrette. La floraison se déroule en 	juin et juillet.
 			Rosette.
 			Feuilles.
 			Fleur.
@@ -548,9 +562,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique de la région méditerranéenne, mais elle a été introduite dans le nord de l'Europe, en Amérique du Nord et du Sud, en Afrique, en Inde et en Australie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique de la région méditerranéenne, mais elle a été introduite dans le nord de l'Europe, en Amérique du Nord et du Sud, en Afrique, en Inde et en Australie.
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Centaurea melitensis L.[4].
-L'espèce se nomme en français « Centaurée de Malte » ou « Croix de Malte »[2].
-Centaurea melitensis a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Centaurea melitensis L..
+L'espèce se nomme en français « Centaurée de Malte » ou « Croix de Malte ».
+Centaurea melitensis a pour synonymes :
 Calcitrapa conferta Moench
 Calcitrapa melitensis (L.) Dum.Cours., 1811
 Calcitrapa melitensis (L.) Soják
